--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Discounted cash flow [lab].xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Discounted cash flow [lab].xlsx
@@ -1,55 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/733a0933307f0df0/Code/Bioindustrial-Park/BioSTEAM 2.x.x/biorefineries/LAOs/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{ECF824FB-DC49-42A0-A442-36E52A6381E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="696" yWindow="2796" windowWidth="20532" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>Depreciable capital</t>
+    <t>Depreciable capital [MM$]</t>
   </si>
   <si>
-    <t>Fixed capital investment</t>
+    <t>Fixed capital investment [MM$]</t>
   </si>
   <si>
-    <t>Working capital</t>
+    <t>Working capital [MM$]</t>
   </si>
   <si>
-    <t>Depreciation</t>
+    <t>Depreciation [MM$]</t>
   </si>
   <si>
-    <t>Loan</t>
+    <t>Loan [MM$]</t>
   </si>
   <si>
-    <t>Loan interest payment</t>
+    <t>Loan interest payment [MM$]</t>
   </si>
   <si>
-    <t>Loan payment</t>
+    <t>Loan payment [MM$]</t>
   </si>
   <si>
-    <t>Loan principal</t>
+    <t>Loan principal [MM$]</t>
   </si>
   <si>
-    <t>Annual operating cost (excluding depreciation)</t>
+    <t>Annual operating cost (excluding depreciation) [MM$]</t>
   </si>
   <si>
-    <t>Sales</t>
+    <t>Sales [MM$]</t>
   </si>
   <si>
-    <t>Tax</t>
+    <t>Tax [MM$]</t>
   </si>
   <si>
-    <t>Incentives</t>
+    <t>Incentives [MM$]</t>
+  </si>
+  <si>
+    <t>Net earnings [MM$]</t>
+  </si>
+  <si>
+    <t>Cash flow [MM$]</t>
+  </si>
+  <si>
+    <t>Discount factor</t>
+  </si>
+  <si>
+    <t>Net present value (NPV) [MM$]</t>
+  </si>
+  <si>
+    <t>Cumulative NPV [MM$]</t>
   </si>
   <si>
     <t>Net earnings</t>
@@ -58,23 +79,17 @@
     <t>Cash flow</t>
   </si>
   <si>
-    <t>Discount factor</t>
-  </si>
-  <si>
     <t>Net present value (NPV)</t>
   </si>
   <si>
     <t>Cumulative NPV</t>
   </si>
-  <si>
-    <t>Cumilative NPV</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +152,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -183,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +238,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +290,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,14 +483,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,16 +545,25 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
       <c r="B2">
-        <v>33770038.96659471</v>
+        <v>37.467944112662842</v>
       </c>
       <c r="C2">
-        <v>60786070.13987048</v>
+        <v>67.442299402793111</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -504,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24314428.05594819</v>
+        <v>26.976919761117241</v>
       </c>
       <c r="G2">
-        <v>1945154.244475856</v>
+        <v>2.1581535808893801</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26259582.30042405</v>
+        <v>29.135073342006631</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -531,30 +599,39 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-36471642.08392228</v>
+        <v>-40.46537964167586</v>
       </c>
       <c r="P2">
         <v>2.42</v>
       </c>
       <c r="Q2">
-        <v>-88261373.84309193</v>
+        <v>-48.963109366427801</v>
       </c>
       <c r="R2">
-        <v>-44130686.92154597</v>
+        <v>-48.963109366427801</v>
       </c>
       <c r="S2">
-        <v>-88261373.84309193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>-40.46537964167586</v>
+      </c>
+      <c r="U2">
+        <v>-97.926218732855588</v>
+      </c>
+      <c r="V2">
+        <v>-97.926218732855588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
       <c r="B3">
-        <v>253275292.2494603</v>
+        <v>281.00958084497131</v>
       </c>
       <c r="C3">
-        <v>455895526.0490286</v>
+        <v>505.81724552094829</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -563,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>182358210.4196114</v>
+        <v>202.3268982083793</v>
       </c>
       <c r="G3">
-        <v>16689423.41760284</v>
+        <v>18.516957724030881</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>225307216.1376383</v>
+        <v>249.9789292744168</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -590,48 +667,57 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>-273537315.6294171</v>
+        <v>-303.49034731256899</v>
       </c>
       <c r="P3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q3">
-        <v>-601782094.3847177</v>
+        <v>-333.83938204382588</v>
       </c>
       <c r="R3">
-        <v>-345021734.1139048</v>
+        <v>-382.80249141025371</v>
       </c>
       <c r="S3">
-        <v>-690043468.2278097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>-303.49034731256899</v>
+      </c>
+      <c r="U3">
+        <v>-667.67876408765187</v>
+      </c>
+      <c r="V3">
+        <v>-765.60498282050742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>135080155.8663788</v>
+        <v>149.8717764506514</v>
       </c>
       <c r="C4">
-        <v>243144280.5594819</v>
+        <v>269.76919761117239</v>
       </c>
       <c r="D4">
-        <v>37991293.83741906</v>
+        <v>42.151437126745698</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>112454229.7587604</v>
+        <v>124.76825389516731</v>
       </c>
       <c r="G4">
-        <v>27020915.67171189</v>
+        <v>29.979774653566729</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>364782361.5681106</v>
+        <v>404.72695782315083</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -649,22 +735,31 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>-168681344.6381406</v>
+        <v>-187.15238084275089</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>-337362689.2762812</v>
+        <v>-187.15238084275089</v>
       </c>
       <c r="R4">
-        <v>-513703078.7520455</v>
+        <v>-569.95487225300462</v>
       </c>
       <c r="S4">
-        <v>-1027406157.504091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>-187.15238084275089</v>
+      </c>
+      <c r="U4">
+        <v>-374.30476168550177</v>
+      </c>
+      <c r="V4">
+        <v>-1139.909744506009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2017</v>
       </c>
@@ -678,25 +773,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>54228668.05476835</v>
+        <v>61.259550333023547</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>29182588.92544885</v>
+        <v>32.378156625852057</v>
       </c>
       <c r="H5">
-        <v>54363328.80817303</v>
+        <v>60.316251561362009</v>
       </c>
       <c r="I5">
-        <v>339601621.6853864</v>
+        <v>376.7888628876409</v>
       </c>
       <c r="J5">
-        <v>312451479.5701394</v>
+        <v>328.25559421311209</v>
       </c>
       <c r="K5">
-        <v>386323873.8855016</v>
+        <v>411.41147744755028</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -705,25 +800,34 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-34719602.54757925</v>
+        <v>-38.419918659947292</v>
       </c>
       <c r="O5">
-        <v>19509065.5071891</v>
+        <v>22.839631673076269</v>
       </c>
       <c r="P5">
-        <v>1.818181818181818</v>
+        <v>1.8181818181818179</v>
       </c>
       <c r="Q5">
-        <v>35471028.19488928</v>
+        <v>20.76330152097843</v>
       </c>
       <c r="R5">
-        <v>-495967564.6546008</v>
+        <v>-549.19157073202621</v>
       </c>
       <c r="S5">
-        <v>-991935129.3092015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>-38.419918659947292</v>
+      </c>
+      <c r="T5">
+        <v>22.839631673076269</v>
+      </c>
+      <c r="U5">
+        <v>41.526603041956861</v>
+      </c>
+      <c r="V5">
+        <v>-1098.383141464052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
@@ -737,25 +841,25 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>93394346.85331367</v>
+        <v>105.4117882867197</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27168129.73483092</v>
+        <v>30.143109031011271</v>
       </c>
       <c r="H6">
-        <v>54363328.80817303</v>
+        <v>60.316251561362009</v>
       </c>
       <c r="I6">
-        <v>312406422.6120443</v>
+        <v>346.61572035729017</v>
       </c>
       <c r="J6">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K6">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -764,25 +868,34 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-38300817.83694086</v>
+        <v>-44.337907325043183</v>
       </c>
       <c r="O6">
-        <v>55093529.01637281</v>
+        <v>61.073880961676558</v>
       </c>
       <c r="P6">
-        <v>1.652892561983471</v>
+        <v>1.6528925619834709</v>
       </c>
       <c r="Q6">
-        <v>91063684.32458314</v>
+        <v>50.47428178650955</v>
       </c>
       <c r="R6">
-        <v>-450435722.4923092</v>
+        <v>-498.71728894551671</v>
       </c>
       <c r="S6">
-        <v>-900871444.9846183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>-44.337907325043183</v>
+      </c>
+      <c r="T6">
+        <v>61.073880961676558</v>
+      </c>
+      <c r="U6">
+        <v>100.9485635730191</v>
+      </c>
+      <c r="V6">
+        <v>-997.43457789103331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2019</v>
       </c>
@@ -796,52 +909,61 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>67578865.18927512</v>
+        <v>76.099930520704035</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24992513.80896354</v>
+        <v>27.72925762858322</v>
       </c>
       <c r="H7">
-        <v>54363328.80817303</v>
+        <v>60.316251561362009</v>
       </c>
       <c r="I7">
-        <v>283035607.6128348</v>
+        <v>314.02872642451138</v>
       </c>
       <c r="J7">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K7">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L7">
-        <v>2728742.49317116</v>
+        <v>2.989334929550318</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-12485336.1729023</v>
+        <v>-18.015384488577801</v>
       </c>
       <c r="O7">
-        <v>55093529.01637281</v>
+        <v>58.084546032126241</v>
       </c>
       <c r="P7">
-        <v>1.502629601803155</v>
+        <v>1.5026296018031551</v>
       </c>
       <c r="Q7">
-        <v>82785167.56780285</v>
+        <v>43.63977913758545</v>
       </c>
       <c r="R7">
-        <v>-411093283.3313764</v>
+        <v>-455.07750980793128</v>
       </c>
       <c r="S7">
-        <v>-818086277.4168155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>-15.026049559027481</v>
+      </c>
+      <c r="T7">
+        <v>61.073880961676558</v>
+      </c>
+      <c r="U7">
+        <v>91.771421430017355</v>
+      </c>
+      <c r="V7">
+        <v>-905.663156461016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
@@ -855,52 +977,61 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>49073993.89225983</v>
+        <v>55.102203758827912</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22642848.60902678</v>
+        <v>25.122298113960909</v>
       </c>
       <c r="H8">
-        <v>54363328.80817303</v>
+        <v>60.316251561362009</v>
       </c>
       <c r="I8">
-        <v>251315127.4136885</v>
+        <v>278.83477297711028</v>
       </c>
       <c r="J8">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K8">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L8">
-        <v>9104281.772683479</v>
+        <v>10.24443836198604</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3912697.830673436</v>
+        <v>-4.2727611591373824</v>
       </c>
       <c r="O8">
-        <v>52986691.72293326</v>
+        <v>50.829442599690523</v>
       </c>
       <c r="P8">
         <v>1.366026910730141</v>
       </c>
       <c r="Q8">
-        <v>72381246.80408886</v>
+        <v>34.71719322429513</v>
       </c>
       <c r="R8">
-        <v>-379682008.6618256</v>
+        <v>-420.36031658363618</v>
       </c>
       <c r="S8">
-        <v>-745705030.6127267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>3.8815901818516281</v>
+      </c>
+      <c r="T8">
+        <v>58.983793940679533</v>
+      </c>
+      <c r="U8">
+        <v>80.573449819929678</v>
+      </c>
+      <c r="V8">
+        <v>-825.08970664108631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
@@ -914,52 +1045,61 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35836091.85541439</v>
+        <v>40.093748584967187</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>20105210.19309508</v>
+        <v>22.306781838168821</v>
       </c>
       <c r="H9">
-        <v>54363328.80817303</v>
+        <v>60.316251561362009</v>
       </c>
       <c r="I9">
-        <v>217057008.7986106</v>
+        <v>240.8253032539171</v>
       </c>
       <c r="J9">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K9">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L9">
-        <v>13643665.73969626</v>
+        <v>15.41007200588027</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12517334.15462298</v>
+        <v>5.5700603708291041</v>
       </c>
       <c r="O9">
-        <v>48353426.01003736</v>
+        <v>45.663808955796299</v>
       </c>
       <c r="P9">
-        <v>1.24184264611831</v>
+        <v>1.2418426461183101</v>
       </c>
       <c r="Q9">
-        <v>60047346.50519071</v>
+        <v>28.35363267275352</v>
       </c>
       <c r="R9">
-        <v>-353944904.7154505</v>
+        <v>-392.0066839108826</v>
       </c>
       <c r="S9">
-        <v>-685657684.107536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>13.637086044861091</v>
+      </c>
+      <c r="T9">
+        <v>53.73083462982828</v>
+      </c>
+      <c r="U9">
+        <v>66.725241854851262</v>
+      </c>
+      <c r="V9">
+        <v>-758.36446478623509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2022</v>
       </c>
@@ -973,52 +1113,61 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>35552237.86717938</v>
+        <v>39.822146851944368</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>17364560.70388885</v>
+        <v>19.266024260313369</v>
       </c>
       <c r="H10">
-        <v>54363328.80817303</v>
+        <v>60.316251561362009</v>
       </c>
       <c r="I10">
-        <v>180058240.6943264</v>
+        <v>199.77507595286849</v>
       </c>
       <c r="J10">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K10">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L10">
-        <v>13656416.81825528</v>
+        <v>15.42458221274514</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12701839.24697574</v>
+        <v>5.8271518969870542</v>
       </c>
       <c r="O10">
-        <v>48254077.11415511</v>
+        <v>45.649298748931407</v>
       </c>
       <c r="P10">
         <v>1.128947860107554</v>
       </c>
       <c r="Q10">
-        <v>54476337.09949033</v>
+        <v>25.767839069008289</v>
       </c>
       <c r="R10">
-        <v>-330554735.1428998</v>
+        <v>-366.23884484187431</v>
       </c>
       <c r="S10">
-        <v>-631181347.0080457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>13.81362717132593</v>
+      </c>
+      <c r="T10">
+        <v>53.635774023270287</v>
+      </c>
+      <c r="U10">
+        <v>60.551992308783348</v>
+      </c>
+      <c r="V10">
+        <v>-697.81247247745171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2023</v>
       </c>
@@ -1032,52 +1181,61 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>35359167.96161155</v>
+        <v>39.650129895068531</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14404659.25554611</v>
+        <v>15.98200607622948</v>
       </c>
       <c r="H11">
-        <v>54363328.80817303</v>
+        <v>60.316251561362009</v>
       </c>
       <c r="I11">
-        <v>140099571.1416995</v>
+        <v>155.44083046773591</v>
       </c>
       <c r="J11">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K11">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L11">
-        <v>13643665.73969626</v>
+        <v>15.41007200588027</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12827334.68559482</v>
+        <v>6.0136790607277666</v>
       </c>
       <c r="O11">
-        <v>48186502.64720637</v>
+        <v>45.663808955796299</v>
       </c>
       <c r="P11">
-        <v>1.026316236461413</v>
+        <v>1.0263162364614129</v>
       </c>
       <c r="Q11">
-        <v>49454590.04511875</v>
+        <v>23.43275427500291</v>
       </c>
       <c r="R11">
-        <v>-309284401.3029204</v>
+        <v>-342.80609056687138</v>
       </c>
       <c r="S11">
-        <v>-581726756.9629269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>13.92543819329522</v>
+      </c>
+      <c r="T11">
+        <v>53.575568088363752</v>
+      </c>
+      <c r="U11">
+        <v>54.985475406731659</v>
+      </c>
+      <c r="V11">
+        <v>-642.82699707072004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2024</v>
       </c>
@@ -1091,52 +1249,61 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18862638.2771078</v>
+        <v>20.921717459504951</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>11207965.69133596</v>
+        <v>12.43526643741887</v>
       </c>
       <c r="H12">
-        <v>54363328.80817303</v>
+        <v>60.316251561362009</v>
       </c>
       <c r="I12">
-        <v>96944208.02486242</v>
+        <v>107.5598453437928</v>
       </c>
       <c r="J12">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K12">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L12">
-        <v>19343397.85558027</v>
+        <v>21.896134474477801</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23550078.98052226</v>
+        <v>18.25602902769381</v>
       </c>
       <c r="O12">
-        <v>42412717.25763006</v>
+        <v>39.17774648719876</v>
       </c>
       <c r="P12">
-        <v>0.9330147604194662</v>
+        <v>0.93301476041946618</v>
       </c>
       <c r="Q12">
-        <v>39571691.23086627</v>
+        <v>18.276707876264169</v>
       </c>
       <c r="R12">
-        <v>-292606701.2729447</v>
+        <v>-324.52938269060718</v>
       </c>
       <c r="S12">
-        <v>-542155065.7320606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>26.098906276411551</v>
+      </c>
+      <c r="T12">
+        <v>47.020623735916487</v>
+      </c>
+      <c r="U12">
+        <v>43.870935989739991</v>
+      </c>
+      <c r="V12">
+        <v>-598.95606108098002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2025</v>
       </c>
@@ -1150,52 +1317,61 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25794356.53513065</v>
+        <v>23.993049628215971</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>7755536.641988995</v>
+        <v>8.6047876275034234</v>
       </c>
       <c r="H13">
-        <v>54363328.80817303</v>
+        <v>60.316251561362009</v>
       </c>
       <c r="I13">
-        <v>50336415.85867839</v>
+        <v>55.848381409934198</v>
       </c>
       <c r="J13">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K13">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L13">
-        <v>25030378.89290527</v>
+        <v>28.367686736210459</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19044462.11280741</v>
+        <v>8.7131445972501211</v>
       </c>
       <c r="O13">
-        <v>44838818.64793806</v>
+        <v>32.706194225466092</v>
       </c>
       <c r="P13">
-        <v>0.8481952367449691</v>
+        <v>0.84819523674496911</v>
       </c>
       <c r="Q13">
-        <v>38032072.39845256</v>
+        <v>13.87061907704808</v>
       </c>
       <c r="R13">
-        <v>-279856990.9048077</v>
+        <v>-310.65876361355907</v>
       </c>
       <c r="S13">
-        <v>-504122993.333608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>24.10254036674938</v>
+      </c>
+      <c r="T13">
+        <v>48.095589994965351</v>
+      </c>
+      <c r="U13">
+        <v>40.794450342168602</v>
+      </c>
+      <c r="V13">
+        <v>-558.16161073881142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2026</v>
       </c>
@@ -1209,52 +1385,61 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2578857.563944819</v>
+        <v>2.398767243197478</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4026913.268694271</v>
+        <v>4.467870512794736</v>
       </c>
       <c r="H14">
-        <v>54363328.80817303</v>
+        <v>60.316251561362009</v>
       </c>
       <c r="I14">
-        <v>0.3191996345994994</v>
+        <v>3.6136692971922461E-7</v>
       </c>
       <c r="J14">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K14">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L14">
-        <v>25030378.89290527</v>
+        <v>28.367686736210459</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>34134536.4440782</v>
+        <v>30.30742698226862</v>
       </c>
       <c r="O14">
-        <v>36713394.00802302</v>
+        <v>32.706194225466092</v>
       </c>
       <c r="P14">
-        <v>0.7710865788590628</v>
+        <v>0.77108657885906284</v>
       </c>
       <c r="Q14">
-        <v>28309205.38395128</v>
+        <v>12.60965370640735</v>
       </c>
       <c r="R14">
-        <v>-268266345.1155922</v>
+        <v>-298.04910990715177</v>
       </c>
       <c r="S14">
-        <v>-475813787.9496567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>38.138823917011408</v>
+      </c>
+      <c r="T14">
+        <v>40.537591160208891</v>
+      </c>
+      <c r="U14">
+        <v>31.257992482912861</v>
+      </c>
+      <c r="V14">
+        <v>-526.90361825589855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2027</v>
       </c>
@@ -1268,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2579435.653513065</v>
+        <v>2.399304962821597</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1283,37 +1468,46 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K15">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L15">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>69470324.4111713</v>
+        <v>71.936205991646275</v>
       </c>
       <c r="O15">
-        <v>72049760.06468436</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P15">
         <v>0.7009877989627844</v>
       </c>
       <c r="Q15">
-        <v>50506002.72353981</v>
+        <v>26.054143104373189</v>
       </c>
       <c r="R15">
-        <v>-244430995.8326058</v>
+        <v>-271.99496680277861</v>
       </c>
       <c r="S15">
-        <v>-425307785.2261168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>77.344037914141026</v>
+      </c>
+      <c r="T15">
+        <v>79.743342876962629</v>
+      </c>
+      <c r="U15">
+        <v>55.899110405256657</v>
+      </c>
+      <c r="V15">
+        <v>-471.00450785064191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2028</v>
       </c>
@@ -1327,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2578857.563944819</v>
+        <v>2.398767243197478</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1342,37 +1536,46 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K16">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L16">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>69470700.16939068</v>
+        <v>71.936743711270395</v>
       </c>
       <c r="O16">
-        <v>72049557.73333549</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P16">
-        <v>0.637261635420713</v>
+        <v>0.63726163542071301</v>
       </c>
       <c r="Q16">
-        <v>45914418.99248446</v>
+        <v>23.685584640339261</v>
       </c>
       <c r="R16">
-        <v>-222762496.4844364</v>
+        <v>-248.30938216243939</v>
       </c>
       <c r="S16">
-        <v>-379393366.2336324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>77.34438743189672</v>
+      </c>
+      <c r="T16">
+        <v>79.743154675094189</v>
+      </c>
+      <c r="U16">
+        <v>50.817253161857401</v>
+      </c>
+      <c r="V16">
+        <v>-420.18725468878438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2029</v>
       </c>
@@ -1386,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2579435.653513065</v>
+        <v>2.399304962821597</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1401,37 +1604,46 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K17">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L17">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>69470324.4111713</v>
+        <v>71.936205991646275</v>
       </c>
       <c r="O17">
-        <v>72049760.06468436</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P17">
-        <v>0.5793287594733754</v>
+        <v>0.57932875947337537</v>
       </c>
       <c r="Q17">
-        <v>41740498.11862794</v>
+        <v>21.532349673035689</v>
       </c>
       <c r="R17">
-        <v>-203063860.7133733</v>
+        <v>-226.77703248940369</v>
       </c>
       <c r="S17">
-        <v>-337652868.1150044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>77.344037914141026</v>
+      </c>
+      <c r="T17">
+        <v>79.743342876962629</v>
+      </c>
+      <c r="U17">
+        <v>46.197611905170781</v>
+      </c>
+      <c r="V17">
+        <v>-373.98964278361359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2030</v>
       </c>
@@ -1445,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2578857.563944819</v>
+        <v>2.398767243197478</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1460,37 +1672,46 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K18">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L18">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>69470700.16939068</v>
+        <v>71.936743711270395</v>
       </c>
       <c r="O18">
-        <v>72049557.73333549</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P18">
-        <v>0.5266625086121595</v>
+        <v>0.52666250861215935</v>
       </c>
       <c r="Q18">
-        <v>37945800.82023509</v>
+        <v>19.57486333912335</v>
       </c>
       <c r="R18">
-        <v>-185156010.0124068</v>
+        <v>-207.2021691502803</v>
       </c>
       <c r="S18">
-        <v>-299707067.2947693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>77.34438743189672</v>
+      </c>
+      <c r="T18">
+        <v>79.743154675094189</v>
+      </c>
+      <c r="U18">
+        <v>41.997729885832548</v>
+      </c>
+      <c r="V18">
+        <v>-331.99191289778111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2031</v>
       </c>
@@ -1504,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2579435.653513065</v>
+        <v>2.399304962821597</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1519,37 +1740,46 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K19">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L19">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>69470324.4111713</v>
+        <v>71.936205991646275</v>
       </c>
       <c r="O19">
-        <v>72049760.06468436</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P19">
-        <v>0.4787840987383267</v>
+        <v>0.47878409873832672</v>
       </c>
       <c r="Q19">
-        <v>34496279.43688259</v>
+        <v>17.795330308293959</v>
       </c>
       <c r="R19">
-        <v>-168876145.7388009</v>
+        <v>-189.40683884198631</v>
       </c>
       <c r="S19">
-        <v>-265210787.8578868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>77.344037914141026</v>
+      </c>
+      <c r="T19">
+        <v>79.743342876962629</v>
+      </c>
+      <c r="U19">
+        <v>38.179844549727918</v>
+      </c>
+      <c r="V19">
+        <v>-293.81206834805317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2032</v>
       </c>
@@ -1563,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2578857.563944819</v>
+        <v>2.398767243197478</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1578,37 +1808,46 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K20">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L20">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>69470700.16939068</v>
+        <v>71.936743711270395</v>
       </c>
       <c r="O20">
-        <v>72049557.73333549</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P20">
-        <v>0.435258271580297</v>
+        <v>0.43525827158029701</v>
       </c>
       <c r="Q20">
-        <v>31360165.96713643</v>
+        <v>16.177573007539959</v>
       </c>
       <c r="R20">
-        <v>-154076269.1264319</v>
+        <v>-173.22926583444641</v>
       </c>
       <c r="S20">
-        <v>-233850621.8907503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>77.34438743189672</v>
+      </c>
+      <c r="T20">
+        <v>79.743154675094189</v>
+      </c>
+      <c r="U20">
+        <v>34.70886767424178</v>
+      </c>
+      <c r="V20">
+        <v>-259.10320067381139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2033</v>
       </c>
@@ -1622,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2579435.653513065</v>
+        <v>2.399304962821597</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1637,37 +1876,46 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K21">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L21">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>69470324.4111713</v>
+        <v>71.936205991646275</v>
       </c>
       <c r="O21">
-        <v>72049760.06468436</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P21">
-        <v>0.3956893378002699</v>
+        <v>0.39568933780026988</v>
       </c>
       <c r="Q21">
-        <v>28509321.84866329</v>
+        <v>14.706884552309051</v>
       </c>
       <c r="R21">
-        <v>-140621835.8424601</v>
+        <v>-158.5223812821373</v>
       </c>
       <c r="S21">
-        <v>-205341300.042087</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>77.344037914141026</v>
+      </c>
+      <c r="T21">
+        <v>79.743342876962629</v>
+      </c>
+      <c r="U21">
+        <v>31.55359053696521</v>
+      </c>
+      <c r="V21">
+        <v>-227.54961013684621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2034</v>
       </c>
@@ -1681,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2578857.563944819</v>
+        <v>2.398767243197478</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1696,37 +1944,46 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K22">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L22">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>69470700.16939068</v>
+        <v>71.936743711270395</v>
       </c>
       <c r="O22">
-        <v>72049557.73333549</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P22">
-        <v>0.3597175798184272</v>
+        <v>0.35971757981842722</v>
       </c>
       <c r="Q22">
-        <v>25917492.53482349</v>
+        <v>13.36989504755368</v>
       </c>
       <c r="R22">
-        <v>-128390532.8570312</v>
+        <v>-145.15248623458371</v>
       </c>
       <c r="S22">
-        <v>-179423807.5072636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>77.34438743189672</v>
+      </c>
+      <c r="T22">
+        <v>79.743154675094189</v>
+      </c>
+      <c r="U22">
+        <v>28.685014606811379</v>
+      </c>
+      <c r="V22">
+        <v>-198.86459553003479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2035</v>
       </c>
@@ -1740,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2579435.653513065</v>
+        <v>2.399304962821597</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1755,37 +2012,46 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K23">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L23">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>69470324.4111713</v>
+        <v>71.936205991646275</v>
       </c>
       <c r="O23">
-        <v>72049760.06468436</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P23">
-        <v>0.3270159816531156</v>
+        <v>0.32701598165311557</v>
       </c>
       <c r="Q23">
-        <v>23561423.0154242</v>
+        <v>12.15445004323062</v>
       </c>
       <c r="R23">
-        <v>-117271166.5066413</v>
+        <v>-132.99803619135309</v>
       </c>
       <c r="S23">
-        <v>-155862384.4918394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>77.344037914141026</v>
+      </c>
+      <c r="T23">
+        <v>79.743342876962629</v>
+      </c>
+      <c r="U23">
+        <v>26.07734755121092</v>
+      </c>
+      <c r="V23">
+        <v>-172.7872479788239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2036</v>
       </c>
@@ -1799,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2578857.563944819</v>
+        <v>2.398767243197478</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1814,37 +2080,46 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K24">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L24">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>69470700.16939068</v>
+        <v>71.936743711270395</v>
       </c>
       <c r="O24">
-        <v>72049557.73333549</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P24">
-        <v>0.2972872560482869</v>
+        <v>0.29728725604828687</v>
       </c>
       <c r="Q24">
-        <v>21419415.31803594</v>
+        <v>11.049500039300559</v>
       </c>
       <c r="R24">
-        <v>-107162651.6426504</v>
+        <v>-121.9485361520525</v>
       </c>
       <c r="S24">
-        <v>-134442969.1738034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>77.34438743189672</v>
+      </c>
+      <c r="T24">
+        <v>79.743154675094189</v>
+      </c>
+      <c r="U24">
+        <v>23.70662364199287</v>
+      </c>
+      <c r="V24">
+        <v>-149.08062433683099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2037</v>
       </c>
@@ -1858,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1289717.826756533</v>
+        <v>1.1996524814107981</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1873,37 +2148,46 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K25">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L25">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>70308640.99856305</v>
+        <v>73.13585847305707</v>
       </c>
       <c r="O25">
-        <v>71598358.82531959</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P25">
-        <v>0.2702611418620789</v>
+        <v>0.27026114186207889</v>
       </c>
       <c r="Q25">
-        <v>19350254.21158173</v>
+        <v>10.04500003572778</v>
       </c>
       <c r="R25">
-        <v>-97973092.67538601</v>
+        <v>-111.9035361163247</v>
       </c>
       <c r="S25">
-        <v>-115092714.9622217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>78.123812027058051</v>
+      </c>
+      <c r="T25">
+        <v>79.323464508468845</v>
+      </c>
+      <c r="U25">
+        <v>21.438050094514882</v>
+      </c>
+      <c r="V25">
+        <v>-127.6425742423161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2038</v>
       </c>
@@ -1932,37 +2216,46 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K26">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L26">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="O26">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P26">
-        <v>0.2456919471473445</v>
+        <v>0.24569194714734449</v>
       </c>
       <c r="Q26">
-        <v>17480234.54290277</v>
+        <v>9.1318182142979829</v>
       </c>
       <c r="R26">
-        <v>-89618948.15969111</v>
+        <v>-102.77171790202679</v>
       </c>
       <c r="S26">
-        <v>-97612480.41931894</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="T26">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="U26">
+        <v>19.3859757156387</v>
+      </c>
+      <c r="V26">
+        <v>-108.25659852667739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2039</v>
       </c>
@@ -1991,37 +2284,46 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K27">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L27">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="O27">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P27">
         <v>0.223356315588495</v>
       </c>
       <c r="Q27">
-        <v>15891122.31172979</v>
+        <v>8.3016529220890742</v>
       </c>
       <c r="R27">
-        <v>-82024271.32724121</v>
+        <v>-94.470064979937689</v>
       </c>
       <c r="S27">
-        <v>-81721358.10758916</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="T27">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="U27">
+        <v>17.623614286944271</v>
+      </c>
+      <c r="V27">
+        <v>-90.632984239733162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2040</v>
       </c>
@@ -2050,37 +2352,46 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K28">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L28">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="O28">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P28">
-        <v>0.2030511959895409</v>
+        <v>0.20305119598954091</v>
       </c>
       <c r="Q28">
-        <v>14446474.82884526</v>
+        <v>7.5469572018991586</v>
       </c>
       <c r="R28">
-        <v>-75120019.66137764</v>
+        <v>-86.923107778038514</v>
       </c>
       <c r="S28">
-        <v>-67274883.27874389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="T28">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="U28">
+        <v>16.0214675335857</v>
+      </c>
+      <c r="V28">
+        <v>-74.611516706147455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2041</v>
       </c>
@@ -2109,37 +2420,46 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K29">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L29">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="O29">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P29">
-        <v>0.184591996354128</v>
+        <v>0.18459199635412801</v>
       </c>
       <c r="Q29">
-        <v>13133158.93531387</v>
+        <v>6.8608701835446881</v>
       </c>
       <c r="R29">
-        <v>-68843427.23786531</v>
+        <v>-80.062237594493809</v>
       </c>
       <c r="S29">
-        <v>-54141724.34343002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="T29">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="U29">
+        <v>14.564970485077909</v>
+      </c>
+      <c r="V29">
+        <v>-60.046546221069548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2042</v>
       </c>
@@ -2168,37 +2488,46 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K30">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L30">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="O30">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P30">
         <v>0.16781090577648</v>
       </c>
       <c r="Q30">
-        <v>11939235.39573988</v>
+        <v>6.2371547123133526</v>
       </c>
       <c r="R30">
-        <v>-63137434.12558138</v>
+        <v>-73.825082882180453</v>
       </c>
       <c r="S30">
-        <v>-42202488.94769014</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="T30">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="U30">
+        <v>13.240882259161729</v>
+      </c>
+      <c r="V30">
+        <v>-46.805663961907811</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2043</v>
       </c>
@@ -2227,37 +2556,46 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K31">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L31">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="O31">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P31">
         <v>0.1525553688877091</v>
       </c>
       <c r="Q31">
-        <v>10853850.35976353</v>
+        <v>5.6701406475575933</v>
       </c>
       <c r="R31">
-        <v>-57950167.65986872</v>
+        <v>-68.154942234622865</v>
       </c>
       <c r="S31">
-        <v>-31348638.58792661</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="T31">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="U31">
+        <v>12.037165690147029</v>
+      </c>
+      <c r="V31">
+        <v>-34.768498271760777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2044</v>
       </c>
@@ -2286,37 +2624,46 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K32">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L32">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="O32">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P32">
-        <v>0.1386866989888264</v>
+        <v>0.13868669898882641</v>
       </c>
       <c r="Q32">
-        <v>9867136.690694114</v>
+        <v>5.1546733159614471</v>
       </c>
       <c r="R32">
-        <v>-53234470.87285718</v>
+        <v>-63.000268918661448</v>
       </c>
       <c r="S32">
-        <v>-21481501.8972325</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="T32">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="U32">
+        <v>10.942877900133659</v>
+      </c>
+      <c r="V32">
+        <v>-23.825620371627121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2045</v>
       </c>
@@ -2345,37 +2692,46 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K33">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L33">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="O33">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="P33">
         <v>0.1260788172625695</v>
       </c>
       <c r="Q33">
-        <v>8970124.264267378</v>
+        <v>4.6860666508740438</v>
       </c>
       <c r="R33">
-        <v>-48947473.79375583</v>
+        <v>-58.314202267787437</v>
       </c>
       <c r="S33">
-        <v>-12511377.63296512</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="T33">
+        <v>78.903586139975076</v>
+      </c>
+      <c r="U33">
+        <v>9.9480708183033286</v>
+      </c>
+      <c r="V33">
+        <v>-13.877549553323799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2046</v>
       </c>
@@ -2386,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-37991293.83741906</v>
+        <v>-42.151437126745698</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2404,34 +2760,43 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>332056140.9017416</v>
+        <v>348.79441313130468</v>
       </c>
       <c r="K34">
-        <v>441512998.7262875</v>
+        <v>470.18454565434331</v>
       </c>
       <c r="L34">
-        <v>41451824.58929029</v>
+        <v>47.054621568570703</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>71146957.5859548</v>
+        <v>74.335510954467878</v>
       </c>
       <c r="O34">
-        <v>109138251.4233738</v>
+        <v>116.4869480812136</v>
       </c>
       <c r="P34">
         <v>0.1146171066023359</v>
       </c>
       <c r="Q34">
-        <v>12509110.59778538</v>
+        <v>6.675698473002611</v>
       </c>
       <c r="R34">
-        <v>-42872977.6339834</v>
+        <v>-51.63850379478481</v>
       </c>
       <c r="S34">
-        <v>-2267.035179739818</v>
+        <v>78.903586139975076</v>
+      </c>
+      <c r="T34">
+        <v>121.0550232667208</v>
+      </c>
+      <c r="U34">
+        <v>13.87497650650999</v>
+      </c>
+      <c r="V34">
+        <v>-2.5730468138096541E-3</v>
       </c>
     </row>
   </sheetData>
